--- a/stocks.xlsx
+++ b/stocks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>Time</t>
   </si>
@@ -28,25 +28,67 @@
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>06:08:57</t>
-  </si>
-  <si>
-    <t>06:08:58</t>
-  </si>
-  <si>
-    <t>06:08:59</t>
-  </si>
-  <si>
-    <t>06:09:00</t>
-  </si>
-  <si>
-    <t>06:09:01</t>
-  </si>
-  <si>
-    <t>06:09:02</t>
-  </si>
-  <si>
-    <t>06:09:03</t>
+    <t>06:34:22</t>
+  </si>
+  <si>
+    <t>06:34:23</t>
+  </si>
+  <si>
+    <t>06:34:24</t>
+  </si>
+  <si>
+    <t>06:34:25</t>
+  </si>
+  <si>
+    <t>06:34:26</t>
+  </si>
+  <si>
+    <t>06:34:27</t>
+  </si>
+  <si>
+    <t>06:34:28</t>
+  </si>
+  <si>
+    <t>06:34:29</t>
+  </si>
+  <si>
+    <t>06:34:30</t>
+  </si>
+  <si>
+    <t>06:34:31</t>
+  </si>
+  <si>
+    <t>06:34:32</t>
+  </si>
+  <si>
+    <t>06:34:34</t>
+  </si>
+  <si>
+    <t>06:34:35</t>
+  </si>
+  <si>
+    <t>06:34:36</t>
+  </si>
+  <si>
+    <t>06:34:44</t>
+  </si>
+  <si>
+    <t>06:34:45</t>
+  </si>
+  <si>
+    <t>06:34:46</t>
+  </si>
+  <si>
+    <t>06:34:47</t>
+  </si>
+  <si>
+    <t>06:34:48</t>
+  </si>
+  <si>
+    <t>06:34:49</t>
+  </si>
+  <si>
+    <t>06:34:50</t>
   </si>
 </sst>
 </file>
@@ -91,6 +133,282 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Revenue Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10112.58991900001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>429.8498380000142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10397.70967600001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>299.4095120000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10344.409512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>412.5692660000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>412.5692660000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10398.529184</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>317.3492669999979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>317.3492669999979</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10387.739433</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10385.219517</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10414.11985700001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>501.2796889999954</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10428.719517</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10599.85925899998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>363.2594390000022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10626.859529</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10718.76971100002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10829.129533</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11148.62908300001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11233.88934400003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11334.45978900003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11486.67953100003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>351.159443000037</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11489.31944300004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>454.1192670000204</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>454.1192670000204</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11134.67953100002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>472.399273000016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11376.33935900002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>408.0194469999942</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11496.019447</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>543.7689369999885</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11405.14910599999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11457.60919199999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11655.60919200001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>410.7391920000213</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>410.7391920000213</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410.7391920000213</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410.7391920000213</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11163.29955600002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11203.33982900001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>342.739552999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11256.699277</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>469.6294630000202</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>356.1094660000202</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10634.06909000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10636.88899600004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10642.64880400003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,7 +727,7 @@
         <v>10000</v>
       </c>
       <c r="D2">
-        <v>62</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -420,10 +738,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>6246.519938000008</v>
+        <v>10112.58991900001</v>
       </c>
       <c r="D3">
-        <v>61</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -434,24 +752,24 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>10259.159876</v>
+        <v>429.8498380000142</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>6399.040000000004</v>
+        <v>10397.70967600001</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -462,10 +780,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>10495.43</v>
+        <v>299.4095120000006</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -476,10 +794,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>10460.09000000004</v>
+        <v>10344.409512</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -490,10 +808,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>7007.410000000011</v>
+        <v>412.5692660000004</v>
       </c>
       <c r="D8">
-        <v>57</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -504,10 +822,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>10518.270059</v>
+        <v>412.5692660000004</v>
       </c>
       <c r="D9">
-        <v>56</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -518,38 +836,38 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>10638.66994700001</v>
+        <v>10398.529184</v>
       </c>
       <c r="D10">
-        <v>56</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>7464.030003000005</v>
+        <v>317.3492669999979</v>
       </c>
       <c r="D11">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12">
-        <v>10593.98989199998</v>
+        <v>317.3492669999979</v>
       </c>
       <c r="D12">
-        <v>52</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -560,10 +878,10 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>7857.749943999964</v>
+        <v>10387.739433</v>
       </c>
       <c r="D13">
-        <v>52</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -574,10 +892,10 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>10672.50999599999</v>
+        <v>10385.219517</v>
       </c>
       <c r="D14">
-        <v>50</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -588,10 +906,10 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>10771.50994599998</v>
+        <v>10414.11985700001</v>
       </c>
       <c r="D15">
-        <v>49</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -602,10 +920,10 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>8403.829945999991</v>
+        <v>501.2796889999954</v>
       </c>
       <c r="D16">
-        <v>45</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -616,10 +934,10 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>10777.68989699999</v>
+        <v>10428.719517</v>
       </c>
       <c r="D17">
-        <v>46</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -630,21 +948,484 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>8655.249942999952</v>
+        <v>10599.85925899998</v>
       </c>
       <c r="D18">
-        <v>45</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19">
-        <v>10804.88012399994</v>
+        <v>363.2594390000022</v>
+      </c>
+      <c r="D19">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>10626.859529</v>
+      </c>
+      <c r="D20">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>10718.76971100002</v>
+      </c>
+      <c r="D21">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>10829.129533</v>
+      </c>
+      <c r="D22">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>11148.62908300001</v>
+      </c>
+      <c r="D23">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>11233.88934400003</v>
+      </c>
+      <c r="D24">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>11334.45978900003</v>
+      </c>
+      <c r="D25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>11486.67953100003</v>
+      </c>
+      <c r="D26">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>351.159443000037</v>
+      </c>
+      <c r="D27">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>11489.31944300004</v>
+      </c>
+      <c r="D28">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>454.1192670000204</v>
+      </c>
+      <c r="D29">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>454.1192670000204</v>
+      </c>
+      <c r="D30">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>11134.67953100002</v>
+      </c>
+      <c r="D31">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>472.399273000016</v>
+      </c>
+      <c r="D32">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>11376.33935900002</v>
+      </c>
+      <c r="D33">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>408.0194469999942</v>
+      </c>
+      <c r="D34">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>11496.019447</v>
+      </c>
+      <c r="D35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>543.7689369999885</v>
+      </c>
+      <c r="D36">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>11405.14910599999</v>
+      </c>
+      <c r="D37">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>11457.60919199999</v>
+      </c>
+      <c r="D38">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>11655.60919200001</v>
+      </c>
+      <c r="D39">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>410.7391920000213</v>
+      </c>
+      <c r="D40">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>410.7391920000213</v>
+      </c>
+      <c r="D41">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>410.7391920000213</v>
+      </c>
+      <c r="D42">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>410.7391920000213</v>
+      </c>
+      <c r="D43">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>11163.29955600002</v>
+      </c>
+      <c r="D44">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>11203.33982900001</v>
+      </c>
+      <c r="D45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>342.739552999998</v>
+      </c>
+      <c r="D46">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>11256.699277</v>
+      </c>
+      <c r="D47">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>469.6294630000202</v>
+      </c>
+      <c r="D48">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>356.1094660000202</v>
+      </c>
+      <c r="D49">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>10634.06909000002</v>
+      </c>
+      <c r="D50">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>10636.88899600004</v>
+      </c>
+      <c r="D51">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>10642.64880400003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>